--- a/Simulation/donnees_entree.xlsx
+++ b/Simulation/donnees_entree.xlsx
@@ -1018,11 +1018,11 @@
   <dimension ref="A1:M146"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A131" activeCellId="0" sqref="A131"/>
-      <selection pane="bottomRight" activeCell="A87" activeCellId="0" sqref="A87:A146"/>
+      <selection pane="bottomLeft" activeCell="A57" activeCellId="0" sqref="A57"/>
+      <selection pane="bottomRight" activeCell="M78" activeCellId="0" sqref="M78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2158,10 +2158,10 @@
       <c r="G33" s="24"/>
       <c r="H33" s="24"/>
       <c r="I33" s="25" t="n">
+        <v>45203</v>
+      </c>
+      <c r="J33" s="25" t="n">
         <v>45261</v>
-      </c>
-      <c r="J33" s="25" t="n">
-        <v>44989</v>
       </c>
       <c r="K33" s="25"/>
       <c r="L33" s="26"/>
@@ -3011,7 +3011,7 @@
         <v>45179</v>
       </c>
       <c r="J59" s="25" t="n">
-        <v>45179</v>
+        <v>45186</v>
       </c>
       <c r="K59" s="25"/>
       <c r="L59" s="26"/>
@@ -3040,7 +3040,7 @@
         <v>45179</v>
       </c>
       <c r="J60" s="25" t="n">
-        <v>45179</v>
+        <v>45193</v>
       </c>
       <c r="K60" s="25"/>
       <c r="L60" s="26"/>
@@ -3139,7 +3139,7 @@
         <v>45435</v>
       </c>
       <c r="J63" s="25" t="n">
-        <v>45435</v>
+        <v>45442</v>
       </c>
       <c r="K63" s="25"/>
       <c r="L63" s="26"/>
@@ -3168,7 +3168,7 @@
         <v>45435</v>
       </c>
       <c r="J64" s="25" t="n">
-        <v>45435</v>
+        <v>45450</v>
       </c>
       <c r="K64" s="25"/>
       <c r="L64" s="26"/>
@@ -3544,10 +3544,10 @@
       <c r="G75" s="24"/>
       <c r="H75" s="24"/>
       <c r="I75" s="25" t="n">
+        <v>45319</v>
+      </c>
+      <c r="J75" s="25" t="n">
         <v>45337</v>
-      </c>
-      <c r="J75" s="25" t="n">
-        <v>45319</v>
       </c>
       <c r="K75" s="25" t="n">
         <v>45246</v>
@@ -5891,8 +5891,8 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="1" sqref="A87:A146 F13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5988,8 +5988,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A87:A146 A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
